--- a/Barroc IT - Documentatie/Steven/Group 1 - Notulen - 05-10-2015/Notulen 05-10-2015.xlsx
+++ b/Barroc IT - Documentatie/Steven/Group 1 - Notulen - 05-10-2015/Notulen 05-10-2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Afwezig:</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>volgende datum: Maandag 12 okt. 9:30</t>
+  </si>
+  <si>
+    <t>12 Werkhouding</t>
   </si>
 </sst>
 </file>
@@ -259,17 +262,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +630,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,8 +666,8 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
@@ -684,8 +687,8 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3"/>
@@ -705,8 +708,8 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
@@ -840,7 +843,7 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>4</v>
       </c>
       <c r="B10" s="11"/>
@@ -861,7 +864,7 @@
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
       <c r="B11" s="14"/>
@@ -870,7 +873,7 @@
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -881,7 +884,7 @@
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -892,7 +895,7 @@
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -903,7 +906,7 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -936,8 +939,8 @@
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>12</v>
+      <c r="A18" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>24</v>
@@ -1065,18 +1068,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1129,6 +1132,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91946DA-1D0C-4852-AC5F-029A4620CB68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1138,14 +1149,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
